--- a/sql/sql functions.xlsx
+++ b/sql/sql functions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="504">
   <si>
     <t>Function</t>
   </si>
@@ -3410,16 +3410,6 @@
 TO_DATE('18-SEP-2019', 'DD-MON-YYYY'), UPPER('it_prog'));</t>
   </si>
   <si>
-    <t>INSERT INTO table_name
-column(s)
-SUBQUERY;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO table_name
-column(s)
-VALUES (value(s)); </t>
-  </si>
-  <si>
     <t>INSERT INTO new_emps (emp_id, name, start_date)
 select employee_id, first_name, hire_date from employees where employee_id&gt;200;</t>
   </si>
@@ -3431,18 +3421,6 @@
   </si>
   <si>
     <t>UPDATE</t>
-  </si>
-  <si>
-    <t>UPDATE table_name
-SET
-column(s) = value(s)
-WHERE condition(s);</t>
-  </si>
-  <si>
-    <t>UPDATE table_name
-SET
-column(s) = subquery(s)
-WHERE column = subquery;</t>
   </si>
   <si>
     <t>UPDATE employees SET salary=10000 where employee_id=100;</t>
@@ -3467,16 +3445,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>DELETE
-FROM table_name
-WHERE condition(s);</t>
-  </si>
-  <si>
-    <t>DELETE
-FROM table_name
-WHERE column = subquery;</t>
-  </si>
-  <si>
     <t>позволяет  менять данные  с использованием subquery</t>
   </si>
   <si>
@@ -3500,22 +3468,2537 @@
     <t>MERGE</t>
   </si>
   <si>
-    <t>MERGE INTO table_name1 t1
-USING {table_name2|subquery}t2
-ON (t1.column = t2.column)
+    <t>обновляет (меняет, удаляет) данные в table_name1 если есть совпадение с table_name2, и добавляет если нет совпадения</t>
+  </si>
+  <si>
+    <t>MERGE INTO new_emps ne
+USING employees e
+ON (ne.emp_id=e.employee_id)
 WHEN MATCHED THEN
+UPDATE SET ne.start_date = SYSDATE
+DELETE where ne.job like '%IT%'
+WHEN NOT MATCHED THEN
+INSERT (emp_id, name, start_date, job) 
+VALUES (employee_id, last_name, hire_date, job_id);</t>
+  </si>
+  <si>
+    <t>COMMIT</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t>закрывает транзакцию и все измененные данные будут видны остальным людям</t>
+  </si>
+  <si>
+    <t>DELETE FROM new_emps where name = 'Kuzmina';
+COMMIT;</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>делает откат всех изменений если они еще не закомитены, то есть новые данные из начатой транзакции никогда не будут видны миру</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROLLBACKTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SAVEPOINT savepoint_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE FROM new_emps where name= 'Kuzmina';
+ROLLBACK;</t>
+  </si>
+  <si>
+    <t>INSERT INTO new_emps VALUES(1000, 'Igor', sysdate, 'IT_PROG');
+UPDATE new_emps SET emp_id = 3000 where emp_id=100;
+DELETE FROM new_emps where emp_id=101;
+ROLLBACK;</t>
+  </si>
+  <si>
+    <t>SAVEPOINT</t>
+  </si>
+  <si>
+    <t>SAVEPOINT savepoint_name;</t>
+  </si>
+  <si>
+    <t>не завершает транзакцию, он лишь точка до которой мы можем откатить изменения, чтобы не откатывать все,а только часть до точки, при этом ROLLBACKTO SAVEPOINT не завершает транзакцию, то есть после этого нужно закомитить</t>
+  </si>
+  <si>
+    <t>INSERT INTO new_emps VALUES(1000, 'Igor', sysdate, 'IT_PROG');
+SAVEPOINT s1;
+UPDATE new_emps SET emp_id = 3000 where emp_id=100;
+SAVEPOINT s2;
+DELETE FROM new_emps where emp_id=101;
+ROLLBACK TO SAVEPOINT s2; COMMIT;</t>
+  </si>
+  <si>
+    <t>AUTOCOMMIT</t>
+  </si>
+  <si>
+    <t>если все изменения будут сразу комититься, то в ролбеке уже нет смысла, это плахая практика пользоваться им</t>
+  </si>
+  <si>
+    <t>set autocommit on/off в командной строке</t>
+  </si>
+  <si>
+    <t>SELECT FOR UPDATE</t>
+  </si>
+  <si>
+    <t>select * FROM new_emps FOR UPDATE;
+COMMIT;</t>
+  </si>
+  <si>
+    <t>позволяет заморозить на время строки или всю таблицу для других юзеров, чтобы никто ничего не сделал в то время как я работаю над изменением данных в ней; снять замок - COMMIT; или ROLLBACK;</t>
+  </si>
+  <si>
+    <t>INSERT ALL
+WHEN department_id=100 THEN
+INTO emps_with_dept_100 VALUES(first_name, salary)
+WHEN salary&gt;15000 THEN
+INTO emps_with_high_salary (name) VALUES(last_name)
+WHEN 5=5 THEN
+INTO some_epms (name, salary) VALUES(first_name, salary)
+select first_name, last_name, salary, department_id
+FROM employees WHERE LENGTH(first_name)&gt;5;</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+student_id integer,
+name varchar2 (15),
+start_date date DEFAULT ROUND(SYSDATE),
+scholarship number (6, 2),
+avg_score number (4, 2) default 5
+);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">создание таблицы </t>
+  </si>
+  <si>
+    <t>создание таблицы с использованием subquery</t>
+  </si>
+  <si>
+    <t>CREATE TABLE new_emps2 AS (SELECT employee_id, first_name, last_name,
+salary, department_id FROM employees);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE new_dep AS (SELECT department_name, MAX(salary) max_salary,
+MIN(salary) min_salary from employees e JOIN departments d
+ON (e.department_id=d.department_id) group by department_name);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE regions2 AS (SELECT * FROM regions WHERE 1=2);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE ADD</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_name
+ADD (column_namedata_typeDEFAULT expr);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students ADD (course number DEFAULT 3);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students MODIFY (avg_score number(5, 3));</t>
+  </si>
+  <si>
+    <t>ALTER TABLE MODIFY</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_name
+MODIFY (column_namedata_typeDEFAULT expr);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_name
+DROP COLUMN column_name;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_name
+SET UNUSED COLUMN column_name;
+ALTER TABLE table_nameDROP UNUSED COLUMNS;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE SET UNUSED COLUMN</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_name
+RENAME COLUMN column_name1 TO column_name2;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE RENAME</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table_nameREAD ONLY;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE READ ONLY</t>
+  </si>
+  <si>
+    <t>изменение таблицы путем добавление нового столбца с дефолтным значением</t>
+  </si>
+  <si>
+    <t>изменение параметров имеющихся столбцов</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students MODIFY (start_date date DEFAULT null);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students DROP COLUMN scholarship;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE DROP COLUMN</t>
+  </si>
+  <si>
+    <t>удалить столбец, невозможно удалить в случае если на этот столбец ссылается например в другой таблице как это было в employees для department_id нельзя было удалить department_id в departments</t>
+  </si>
+  <si>
+    <t>мы как бы убираем столбец из видимости чтобы позже удалить, следующая транзакция</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students SET UNUSED COLUMN start_date; ALTER TABLE students DROP UNUSED COLUMNS;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students RENAME COLUMN student_id TO id;</t>
+  </si>
+  <si>
+    <t>меняет название столбца</t>
+  </si>
+  <si>
+    <t>ALTER TABLE students READ ONLY;</t>
+  </si>
+  <si>
+    <t>таблица только для select, изменить или удалить данные в ней нельзя, но саму таблицу удалить можна</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORGANIZATION HEAP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(column_namedatatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEFAULT expr,
+column_namedatatype DEFAULT expr,
+…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table
+AS
+subquery;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MERGE INTO table_name1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USING {table_name2|subquery}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON (t1.column = t2.column)
+WHEN MATCHED THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 UPDATE SET column=value
 DELETE WHERE condition
-WHEN NOT MATCHED THEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHEN NOT MATCHED THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 INSERT(value1, value2)
 VALUES (column1, column2);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE
+FROM table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE condition(s);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE
+FROM table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE column = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subquery;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE table_name
+SET
+column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= subquery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(s)
+WHERE column = subquery;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE table_name
+SET
+column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(s) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(s)
+WHERE condition(s);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSERT INTO table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+column(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBQUERY;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSERT INTO table_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+column(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VALUES (value(s)); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUNCATE TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table_name;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE students;</t>
+  </si>
+  <si>
+    <t>удаляет все строки из таблицы, похож на DML команду DELETE, но уддаляет все строки нельзя выбрать отдельные и нельзя откатить поэтому с ней нужно быть очень осторожным</t>
+  </si>
+  <si>
+    <t>DROP TABLE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table_name;</t>
+    </r>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE</t>
+  </si>
+  <si>
+    <t>DROP TABLE students;</t>
+  </si>
+  <si>
+    <t>удалфет таблицу безвозвратно, нельзя удалить таблицу на столбцы в которой ссылаются другие таблицы например departments</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number CONSTRAINT st_id_unique UNIQUE,
+name varchar (15),
+course number,
+fuaculty_id integer,
+avg_score number (5, 2),
+start_date date,
+scholarship integer
+);</t>
+  </si>
+  <si>
+    <t>при создании таблицы позволяет прописать правило, чтобы значения в данном столбце всегда были уникальными</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+fuaculty_id integer,
+avg_score number (5, 2),
+start_date date,
+scholarship integer,
+CONSTRAINT st_id_unique UNIQUE (id)
+);</t>
+  </si>
+  <si>
+    <t>UNIQUE принуждает столбец(цы) содержать только уникальные значения. Исключение –null.</t>
+  </si>
+  <si>
+    <t>UNIQUE CONSTRAINT</t>
+  </si>
+  <si>
+    <t>NOT NULL CONSTRAINT</t>
+  </si>
+  <si>
+    <t>NOT NULL не разрешает столбцам содержать значение “null”</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number CONSTRAINT stud_course_notnull NOT NULL,
+fuaculty_id integer
+);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number NOT NULL,
+fuaculty_id integer
+);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE students MODIFY (course CONSTRAINT st_course_notnull NOT NULL);------ALTER TABLE students MODIFY (course  NULL); </t>
+  </si>
+  <si>
+    <t>ALTER TABLE students ADD CONSTRAINT st_id_unique UNIQUE(is);----------------------------ALTER TABLE students MODIFY (id CONSTRAINT st_id_unique UNIQUE);--ALTER TABLE students MODIFY (id UNIQUE);---------------------------------ALTER TABLE students DROP CONSTRAINT st_id_unique;</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY принуждает столбец(цы) содержать только уникальные значенияи не разрешает содержать значение “null”</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY CONSTRAINT</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number CONSTRAINT st_id_pk PRIMARY KEY,
+name varchar (15),
+course number,
+fuaculty_id integer
+);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+fuaculty_id integer,
+CONSTRAINT st_id_pk PRIMARY KEY
+);</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY CONSTRAINT</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+faculty_id integer CONSTRAINT st_faculty_fk REFERENCES faculties(id)
+);</t>
+  </si>
+  <si>
+    <t>FOREIGN KEYпринуждает использовать только значения из определённого столбца таблицы-родителя или значение “null”ж ссылфется только на объект с CONSTRAINT UNIQUE или PRIMARY KEY, иначе не получится</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+faculty_id integer REFERENCES faculties(id)
+);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+faculty_id integerб
+CONSTRAINT st_faculty_fk FOREIGN KEY (faculty_id) REFERENCES faculties(id)
+);</t>
+  </si>
+  <si>
+    <t>позволяет удалить даже если на эти данные ссылается столбец из другой таблицы, в таком случай все ссылыемые строки тоже будут удалены</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+faculty_id integer REFERENCES faculties ON DELETE CASCADE
+);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number,
+faculty_id integer REFERENCES faculties ON DELETE SET NULL
+);</t>
+  </si>
+  <si>
+    <t>позволяет удалить даже если на эти данные ссылается столбец из другой таблицы, в таком случай все ссылыемыестолбцы будут заменены на значение null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON DELETE CASCADE FOREIGN KEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON DELETE  SET NULL FOREIGN KEY </t>
+  </si>
+  <si>
+    <t>CHECK CONSTRAINT</t>
+  </si>
+  <si>
+    <t>CREATE TABLE students (
+id number,
+name varchar (15),
+course number CONSTRAINT ch CHECK (course&gt;0 AND course&lt;6),
+faculty_id integer REFERENCES faculties ON DELETE SET NULL
+);</t>
+  </si>
+  <si>
+    <t>правило которое гласит какие значения могут быть добавлены, True или False</t>
+  </si>
+  <si>
+    <t>INDEX B_TREE</t>
+  </si>
+  <si>
+    <t>эффективен если: таблицы очень большие; кол-во строк в аутпуте к общему кол-ву маленькое 2-4%; много уникальных значений; where/join</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {UNIQUE|BITMAP}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index_nameON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table_name(column1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column2, …</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DROP INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.index_name;</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE INDEX in1 ON students(id);-------------------------CREATE UNIQUE INDEX in2 ON students(name);</t>
+  </si>
+  <si>
+    <t>INDEX BITMAP</t>
+  </si>
+  <si>
+    <t>эффективен там, где малое кол-во уникальных значений; кол-во строк большое; используется булевая логика</t>
+  </si>
+  <si>
+    <t>CREATE BITMAP INDEX in1 ON students(id);</t>
+  </si>
+  <si>
+    <t>CREATE VIEW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BITMAP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index_nameON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table_name(column1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column2, …</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DROP INDEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.index_name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR REPLACE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FORCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOFORCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(alias1, alias2, …)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS subquery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WITH CHECK OPTION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTRAINTconstrain_tname</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WITH READ ONLY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSTRAINTconstraint_name}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ALTER VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view_nameCOMPILE;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view_name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PUBLIC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYNONYM synonym_name
+FOR object_name;</t>
+    </r>
+  </si>
+  <si>
+    <t>create SYNONYM syn1 for students;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PUBLIC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYNONYM synonym_name
+COMPILE;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PUBLIC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYNONYM synonym_name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREATE SEQUENCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequence_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+INCREMENT BY number
+START WITH number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAXVALUE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOMAXVALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MINVALUE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOMINVALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CYCLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOCYCLE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CACHE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOCACHE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE s1;
+select s1.nextval from dual;
+select s1.currval from dual;</t>
+  </si>
+  <si>
+    <t>создает последовательность, дефолтово начиная от 1</t>
+  </si>
+  <si>
+    <t>создает вид для того чтобы пользователи могли пользоваться не всей таблицей, а лишь ее частями, часто сгруппированными таблицами, вид - это реультат селекта</t>
+  </si>
+  <si>
+    <t>ALTER VIEW</t>
+  </si>
+  <si>
+    <t>DROP VIEW</t>
+  </si>
+  <si>
+    <t>CREATE SYNONYM</t>
+  </si>
+  <si>
+    <t>ALTER SYNONYM</t>
+  </si>
+  <si>
+    <t>DROP SYNONYM</t>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE</t>
+  </si>
+  <si>
+    <t>ALTER SEQUENCE</t>
+  </si>
+  <si>
+    <t>DROP SEQUENCE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DROP SEQUENCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequence_name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ALTER SEQUENCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequence_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+INCREMENT BY number
+START WITH number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAXVALUE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOMAXVALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MINVALUE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOMINVALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CYCLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOCYCLE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CACHE number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOCACHE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE SEQUENCE seq_st;
+CREATE SEQUENCE seq_faculty start with 20 increment by 5;
+insert into faculties values (seq_faculty.nextval, 'IT');
+insert into faculties values (seq_faculty.nextval, 'Marketing');
+insert into faculties values (seq_faculty.nextval, 'Philologi');
+select * from faculties;
+insert into students values (seq_st.nextval, 'Zaur', 3, 20);
+insert into students values (seq_st.nextval, 'Masha', 2, seq_faculty.currval);
+</t>
+  </si>
+  <si>
+    <t>create sequence s4 increment by 2 maxvalue 17 cycle cache 3;-----------create sequence s6 start with 7 increment by 4 maxvalue 17 cycle cache 2;</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>SINGLE AMPERSAND SUBSTITUTION</t>
+  </si>
+  <si>
+    <t>select first_name, last_name, salary
+from employees
+where employee_id=&amp;ID;</t>
+  </si>
+  <si>
+    <t>позволяет использовать своего рода шаблон</t>
+  </si>
+  <si>
+    <t>DOUBLE AMPERSAND SUBSTITUTION</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>select first_name, last_name, salary
+from employees
+where first_name like '%&amp;&amp;letter%'
+AND last_name like '%&amp;letter';</t>
+  </si>
+  <si>
+    <t>UNDEFINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNDEFINE ampersand_name</t>
+  </si>
+  <si>
+    <t>select first_name, last_name, salary
+from employees
+where first_name like '%&amp;&amp;letter%'
+AND last_name like '%&amp;letter';
+UNDEFINE letter;</t>
+  </si>
+  <si>
+    <t>когда два и более раз будет ссылаться на одно значение, значение храниться в памяти пока мы не обновим сессию, но есть решение ниже</t>
+  </si>
+  <si>
+    <t>если нужно чтобы каждый раз значчение двойного амперсанда сбрасывалось</t>
+  </si>
+  <si>
+    <t>DEFINE;</t>
+  </si>
+  <si>
+    <t>DEFINE</t>
+  </si>
+  <si>
+    <t>показывает назначенные переменные в том числе двойной, или же назначает значение для двойного амперсанда амперсанд</t>
+  </si>
+  <si>
+    <t>DEFINE;
+DEFINE letter = a;</t>
+  </si>
+  <si>
+    <t>set define off;
+set define on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отключает/включает возможжность считывать &amp; как амперсанд </t>
+  </si>
+  <si>
+    <t>VERIFY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3586,6 +6069,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -4070,10 +6561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D84:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,17 +8090,20 @@
       <c r="A78" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>335</v>
+      <c r="B78" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>333</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>330</v>
@@ -5619,14 +8113,14 @@
       <c r="A79" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>330</v>
@@ -5637,19 +8131,19 @@
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>330</v>
@@ -5660,19 +8154,19 @@
     </row>
     <row r="81" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>330</v>
@@ -5683,22 +8177,22 @@
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>330</v>
@@ -5709,13 +8203,13 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>330</v>
@@ -5726,29 +8220,695 @@
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G85" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sql/sql functions.xlsx
+++ b/sql/sql functions.xlsx
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
